--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.5346420996543</v>
+        <v>372.107327571957</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.2520794800003</v>
+        <v>509.1336618006466</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.0897757542085</v>
+        <v>460.5426596919744</v>
       </c>
       <c r="AD2" t="n">
-        <v>330534.6420996543</v>
+        <v>372107.327571957</v>
       </c>
       <c r="AE2" t="n">
-        <v>452252.0794800003</v>
+        <v>509133.6618006466</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.504170387278186e-06</v>
+        <v>4.233424287115255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>409089.7757542084</v>
+        <v>460542.6596919745</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.1877945150058</v>
+        <v>185.0168524327183</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.6489839096062</v>
+        <v>253.1482198657877</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.2088001821671</v>
+        <v>228.9881090576287</v>
       </c>
       <c r="AD3" t="n">
-        <v>164187.7945150058</v>
+        <v>185016.8524327182</v>
       </c>
       <c r="AE3" t="n">
-        <v>224648.9839096061</v>
+        <v>253148.2198657877</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.942940965107381e-06</v>
+        <v>6.665737335265811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>203208.8001821671</v>
+        <v>228988.1090576287</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.8075747785226</v>
+        <v>162.965686537693</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.3449387516968</v>
+        <v>222.9768418594488</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.1330709129965</v>
+        <v>201.6962450224102</v>
       </c>
       <c r="AD4" t="n">
-        <v>131807.5747785226</v>
+        <v>162965.686537693</v>
       </c>
       <c r="AE4" t="n">
-        <v>180344.9387516968</v>
+        <v>222976.8418594488</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.383255179581261e-06</v>
+        <v>7.410110361552509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163133.0709129965</v>
+        <v>201696.2450224102</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.5922574803382</v>
+        <v>148.5065667440712</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.5773556576495</v>
+        <v>203.1932362664802</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.9159378545896</v>
+        <v>183.8007589807634</v>
       </c>
       <c r="AD5" t="n">
-        <v>127592.2574803382</v>
+        <v>148506.5667440712</v>
       </c>
       <c r="AE5" t="n">
-        <v>174577.3556576495</v>
+        <v>203193.2362664802</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.466350949488333e-06</v>
+        <v>7.550587883476844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.535590277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>157915.9378545896</v>
+        <v>183800.7589807634</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.2232617434039</v>
+        <v>268.5001922642756</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.2651352168888</v>
+        <v>367.3738084484598</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.4629889787513</v>
+        <v>332.3121677825164</v>
       </c>
       <c r="AD2" t="n">
-        <v>228223.2617434039</v>
+        <v>268500.1922642756</v>
       </c>
       <c r="AE2" t="n">
-        <v>312265.1352168888</v>
+        <v>367373.8084484598</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.087656628461082e-06</v>
+        <v>5.347175983364472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.788194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>282462.9889787513</v>
+        <v>332312.1677825165</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.4261988429915</v>
+        <v>167.6074240392626</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.7150292417558</v>
+        <v>229.3278718880991</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.4636299598016</v>
+        <v>207.4411416588547</v>
       </c>
       <c r="AD3" t="n">
-        <v>147426.1988429915</v>
+        <v>167607.4240392626</v>
       </c>
       <c r="AE3" t="n">
-        <v>201715.0292417558</v>
+        <v>229327.8718880991</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184002674183734e-06</v>
+        <v>7.24581820643661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.008680555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>182463.6299598016</v>
+        <v>207441.1416588547</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.9754039161828</v>
+        <v>140.2418804584744</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.155640579314</v>
+        <v>191.8851278783065</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.4888566363582</v>
+        <v>173.5718805861235</v>
       </c>
       <c r="AD4" t="n">
-        <v>119975.4039161828</v>
+        <v>140241.8804584745</v>
       </c>
       <c r="AE4" t="n">
-        <v>164155.640579314</v>
+        <v>191885.1278783065</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.57961833829086e-06</v>
+        <v>7.930941855956783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>148488.8566363582</v>
+        <v>173571.8805861235</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.1061617686499</v>
+        <v>133.3369825026314</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.4933286572601</v>
+        <v>182.4375418725282</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.4623864135295</v>
+        <v>165.0259589289635</v>
       </c>
       <c r="AD2" t="n">
-        <v>115106.1617686499</v>
+        <v>133336.9825026314</v>
       </c>
       <c r="AE2" t="n">
-        <v>157493.3286572601</v>
+        <v>182437.5418725282</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.612801857386622e-06</v>
+        <v>8.728413741713499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>142462.3864135295</v>
+        <v>165025.9589289635</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.7622814258013</v>
+        <v>153.755632492297</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.3876987389589</v>
+        <v>210.3752395956364</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.789995561125</v>
+        <v>190.2973219921922</v>
       </c>
       <c r="AD2" t="n">
-        <v>134762.2814258013</v>
+        <v>153755.632492297</v>
       </c>
       <c r="AE2" t="n">
-        <v>184387.6987389589</v>
+        <v>210375.2395956364</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.258778238021409e-06</v>
+        <v>7.758569050447782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>166789.995561125</v>
+        <v>190297.3219921922</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.2940607958161</v>
+        <v>138.6986122781614</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.9091998113203</v>
+        <v>189.7735602698163</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.5066375837612</v>
+        <v>171.6618380265832</v>
       </c>
       <c r="AD3" t="n">
-        <v>110294.0607958161</v>
+        <v>138698.6122781614</v>
       </c>
       <c r="AE3" t="n">
-        <v>150909.1998113203</v>
+        <v>189773.5602698163</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.667385868024529e-06</v>
+        <v>8.502963413041283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.793836805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>136506.6375837612</v>
+        <v>171661.8380265833</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.137993809291</v>
+        <v>139.3753515099004</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.8003944258244</v>
+        <v>190.6995047423089</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.0264620455842</v>
+        <v>172.4994116581927</v>
       </c>
       <c r="AD2" t="n">
-        <v>113137.993809291</v>
+        <v>139375.3515099004</v>
       </c>
       <c r="AE2" t="n">
-        <v>154800.3944258244</v>
+        <v>190699.5047423089</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462815716978453e-06</v>
+        <v>8.745680883966637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>140026.4620455842</v>
+        <v>172499.4116581927</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.9352652149697</v>
+        <v>287.4624741935722</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.5501650508606</v>
+        <v>393.318839140961</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.998710702267</v>
+        <v>355.7810411598046</v>
       </c>
       <c r="AD2" t="n">
-        <v>256935.2652149697</v>
+        <v>287462.4741935722</v>
       </c>
       <c r="AE2" t="n">
-        <v>351550.1650508606</v>
+        <v>393318.8391409609</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.924766287366479e-06</v>
+        <v>5.032005433127355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.102864583333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>317998.710702267</v>
+        <v>355781.0411598046</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.2297371817426</v>
+        <v>167.6715157972188</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.7637805607013</v>
+        <v>229.4155650588635</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.8438688721619</v>
+        <v>207.5204655164796</v>
       </c>
       <c r="AD3" t="n">
-        <v>137229.7371817426</v>
+        <v>167671.5157972188</v>
       </c>
       <c r="AE3" t="n">
-        <v>187763.7805607013</v>
+        <v>229415.5650588635</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.210357857127546e-06</v>
+        <v>7.243841569150836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.932725694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>169843.868872162</v>
+        <v>207520.4655164796</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.977079721068</v>
+        <v>142.4138335556715</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.8944217232605</v>
+        <v>194.8568899256981</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.9662523518308</v>
+        <v>176.2600218346072</v>
       </c>
       <c r="AD4" t="n">
-        <v>121977.079721068</v>
+        <v>142413.8335556715</v>
       </c>
       <c r="AE4" t="n">
-        <v>166894.4217232605</v>
+        <v>194856.8899256981</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.539532855892219e-06</v>
+        <v>7.810180968434938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>150966.2523518308</v>
+        <v>176260.0218346072</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.468023936338</v>
+        <v>139.3204503851015</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.2519562055515</v>
+        <v>190.6243866012924</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.4349274028252</v>
+        <v>172.4314626871258</v>
       </c>
       <c r="AD2" t="n">
-        <v>113468.023936338</v>
+        <v>139320.4503851015</v>
       </c>
       <c r="AE2" t="n">
-        <v>155251.9562055515</v>
+        <v>190624.3866012924</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.285940721431106e-06</v>
+        <v>8.59185554073563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>140434.9274028252</v>
+        <v>172431.4626871257</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9550152766116</v>
+        <v>211.0413405447276</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.2764380212256</v>
+        <v>288.7560726200063</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8219849891026</v>
+        <v>261.1975983209312</v>
       </c>
       <c r="AD2" t="n">
-        <v>171955.0152766115</v>
+        <v>211041.3405447276</v>
       </c>
       <c r="AE2" t="n">
-        <v>235276.4380212256</v>
+        <v>288756.0726200063</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622186806537955e-06</v>
+        <v>6.415161987851068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.961371527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>212821.9849891026</v>
+        <v>261197.5983209312</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.4658085508412</v>
+        <v>143.823222929214</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.6171691342645</v>
+        <v>196.7852786444488</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.6698463257107</v>
+        <v>178.0043678405516</v>
       </c>
       <c r="AD3" t="n">
-        <v>114465.8085508412</v>
+        <v>143823.222929214</v>
       </c>
       <c r="AE3" t="n">
-        <v>156617.1691342645</v>
+        <v>196785.2786444488</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.647273932397112e-06</v>
+        <v>8.230667458794056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.646267361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>141669.8463257107</v>
+        <v>178004.3678405516</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8806836715956</v>
+        <v>144.2380980499684</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.184819577479</v>
+        <v>197.3529290876633</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.1833210073274</v>
+        <v>178.5178425221682</v>
       </c>
       <c r="AD4" t="n">
-        <v>114880.6836715956</v>
+        <v>144238.0980499684</v>
       </c>
       <c r="AE4" t="n">
-        <v>157184.819577479</v>
+        <v>197352.9290876632</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.646975392315801e-06</v>
+        <v>8.230138722126467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.646267361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>142183.3210073274</v>
+        <v>178517.8425221682</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.9352783911576</v>
+        <v>242.0271943272057</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.9791978192456</v>
+        <v>331.1522847645625</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.3039901678225</v>
+        <v>299.5475754818819</v>
       </c>
       <c r="AD2" t="n">
-        <v>211935.2783911576</v>
+        <v>242027.1943272057</v>
       </c>
       <c r="AE2" t="n">
-        <v>289979.1978192456</v>
+        <v>331152.2847645625</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.251733962894203e-06</v>
+        <v>5.670740092465067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.506076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>262303.9901678225</v>
+        <v>299547.5754818819</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.8647365673618</v>
+        <v>155.7859707942667</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.2136853316725</v>
+        <v>213.1532380325942</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.777852907091</v>
+        <v>192.8101921572728</v>
       </c>
       <c r="AD3" t="n">
-        <v>125864.7365673618</v>
+        <v>155785.9707942667</v>
       </c>
       <c r="AE3" t="n">
-        <v>172213.6853316725</v>
+        <v>213153.2380325942</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.411242817069252e-06</v>
+        <v>7.692822286755759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.796006944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>155777.852907091</v>
+        <v>192810.1921572728</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6192425879486</v>
+        <v>138.7089668301712</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.3000808204096</v>
+        <v>189.7877278246867</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.8103888965485</v>
+        <v>171.6746534499011</v>
       </c>
       <c r="AD4" t="n">
-        <v>118619.2425879486</v>
+        <v>138708.9668301712</v>
       </c>
       <c r="AE4" t="n">
-        <v>162300.0808204096</v>
+        <v>189787.7278246867</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.5894787896081e-06</v>
+        <v>8.003650259440201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>146810.3888965485</v>
+        <v>171674.6534499011</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.7967703590515</v>
+        <v>338.1464716544489</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.0904349546531</v>
+        <v>462.6669204870899</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.3337337940853</v>
+        <v>418.5106389529026</v>
       </c>
       <c r="AD2" t="n">
-        <v>296796.7703590515</v>
+        <v>338146.4716544489</v>
       </c>
       <c r="AE2" t="n">
-        <v>406090.4349546531</v>
+        <v>462666.9204870899</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.6404176353868e-06</v>
+        <v>4.488534982838262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>367333.7337940853</v>
+        <v>418510.6389529026</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.6040511173373</v>
+        <v>177.2789912735868</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.2725716217754</v>
+        <v>242.5609368575277</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.8226981196976</v>
+        <v>219.4112614803286</v>
       </c>
       <c r="AD3" t="n">
-        <v>156604.0511173373</v>
+        <v>177278.9912735868</v>
       </c>
       <c r="AE3" t="n">
-        <v>214272.5716217754</v>
+        <v>242560.9368575277</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.067538145188819e-06</v>
+        <v>6.914545265122244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.021701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>193822.6981196976</v>
+        <v>219411.2614803286</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.6389452183592</v>
+        <v>147.3991367206293</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.2729917636417</v>
+        <v>201.6780016520432</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.7360606199393</v>
+        <v>182.4301362312826</v>
       </c>
       <c r="AD4" t="n">
-        <v>126638.9452183592</v>
+        <v>147399.1367206293</v>
       </c>
       <c r="AE4" t="n">
-        <v>173272.9917636417</v>
+        <v>201678.0016520432</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.468739327811215e-06</v>
+        <v>7.596560685418778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>156736.0606199393</v>
+        <v>182430.1362312826</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.521860125312</v>
+        <v>146.2820516275821</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.7445466570191</v>
+        <v>200.1495565454206</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.3534881691061</v>
+        <v>181.0475637804494</v>
       </c>
       <c r="AD5" t="n">
-        <v>125521.860125312</v>
+        <v>146282.0516275821</v>
       </c>
       <c r="AE5" t="n">
-        <v>171744.5466570191</v>
+        <v>200149.5565454206</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.4981965105841e-06</v>
+        <v>7.646635943817279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>155353.4881691061</v>
+        <v>181047.5637804494</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.9580374311822</v>
+        <v>175.6118843140516</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.0744701442948</v>
+        <v>240.2799275679245</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.8842049235717</v>
+        <v>217.3479485159078</v>
       </c>
       <c r="AD2" t="n">
-        <v>146958.0374311823</v>
+        <v>175611.8843140516</v>
       </c>
       <c r="AE2" t="n">
-        <v>201074.4701442948</v>
+        <v>240279.9275679245</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.021803247600346e-06</v>
+        <v>7.252262974712551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181884.2049235717</v>
+        <v>217347.9485159078</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.2537755214635</v>
+        <v>138.9928737503535</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.8540797216903</v>
+        <v>190.1761817979692</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.456778078124</v>
+        <v>172.0260339211723</v>
       </c>
       <c r="AD3" t="n">
-        <v>110253.7755214635</v>
+        <v>138992.8737503535</v>
       </c>
       <c r="AE3" t="n">
-        <v>150854.0797216903</v>
+        <v>190176.1817979692</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716488535526656e-06</v>
+        <v>8.504944939130254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.685329861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>136456.778078124</v>
+        <v>172026.0339211723</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4492716081966</v>
+        <v>135.1190922520533</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0168337415799</v>
+        <v>184.8759030528194</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9857534687455</v>
+        <v>167.2316063404698</v>
       </c>
       <c r="AD2" t="n">
-        <v>107449.2716081966</v>
+        <v>135119.0922520533</v>
       </c>
       <c r="AE2" t="n">
-        <v>147016.8337415798</v>
+        <v>184875.9030528193</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.636843307627412e-06</v>
+        <v>8.650867478742732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.963107638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>132985.7534687455</v>
+        <v>167231.6063404698</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4279675255238</v>
+        <v>135.0977881693806</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.9876845557972</v>
+        <v>184.8467538670367</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9593862403428</v>
+        <v>167.2052391120671</v>
       </c>
       <c r="AD3" t="n">
-        <v>107427.9675255238</v>
+        <v>135097.7881693806</v>
       </c>
       <c r="AE3" t="n">
-        <v>146987.6845557972</v>
+        <v>184846.7538670367</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.654024657486415e-06</v>
+        <v>8.682922385685925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.945746527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>132959.3862403427</v>
+        <v>167205.2391120671</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.7489346573073</v>
+        <v>131.6826694588435</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.6363106468879</v>
+        <v>180.1740377828781</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.7825995957255</v>
+        <v>162.9784804927809</v>
       </c>
       <c r="AD2" t="n">
-        <v>113748.9346573073</v>
+        <v>131682.6694588435</v>
       </c>
       <c r="AE2" t="n">
-        <v>155636.3106468879</v>
+        <v>180174.0377828781</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.564560410744088e-06</v>
+        <v>8.777818940228732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.217013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>140782.5995957254</v>
+        <v>162978.4804927809</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.9186568931907</v>
+        <v>149.0396057974777</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.550973266497</v>
+        <v>203.9225638153739</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.3692663442752</v>
+        <v>184.4604805320085</v>
       </c>
       <c r="AD2" t="n">
-        <v>123918.6568931907</v>
+        <v>149039.6057974776</v>
       </c>
       <c r="AE2" t="n">
-        <v>169550.973266497</v>
+        <v>203922.5638153739</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.982802141158089e-06</v>
+        <v>8.214924993474751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.417100694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>153369.2663442752</v>
+        <v>184460.4805320085</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.4700427835835</v>
+        <v>226.1154693481247</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.8189801829311</v>
+        <v>309.3811606724316</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.1632740041591</v>
+        <v>279.8542569171325</v>
       </c>
       <c r="AD2" t="n">
-        <v>196470.0427835835</v>
+        <v>226115.4693481247</v>
       </c>
       <c r="AE2" t="n">
-        <v>268818.9801829311</v>
+        <v>309381.1606724316</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429645604271723e-06</v>
+        <v>6.025752034814796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.23046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>243163.2740041591</v>
+        <v>279854.2569171325</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.7626670951354</v>
+        <v>147.4080041511256</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.1280764416995</v>
+        <v>201.6901344616516</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.7502389708237</v>
+        <v>182.4411111025705</v>
       </c>
       <c r="AD3" t="n">
-        <v>117762.6670951354</v>
+        <v>147408.0041511256</v>
       </c>
       <c r="AE3" t="n">
-        <v>161128.0764416995</v>
+        <v>201690.1344616516</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.580738936121501e-06</v>
+        <v>8.048177610803258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.665798611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>145750.2389708237</v>
+        <v>182441.1111025705</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.8156385937935</v>
+        <v>146.4609756497836</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.8323102662152</v>
+        <v>200.3943682861674</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.578138900508</v>
+        <v>181.2690110322548</v>
       </c>
       <c r="AD4" t="n">
-        <v>116815.6385937935</v>
+        <v>146460.9756497836</v>
       </c>
       <c r="AE4" t="n">
-        <v>159832.3102662152</v>
+        <v>200394.3682861674</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.619243298577935e-06</v>
+        <v>8.115828256727757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>144578.138900508</v>
+        <v>181269.0110322548</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.6084322949933</v>
+        <v>316.4694671840634</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.0996160519057</v>
+        <v>433.0074866487652</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.1097579585463</v>
+        <v>391.6818598528307</v>
       </c>
       <c r="AD2" t="n">
-        <v>275608.4322949934</v>
+        <v>316469.4671840635</v>
       </c>
       <c r="AE2" t="n">
-        <v>377099.6160519057</v>
+        <v>433007.4866487652</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.782043008523474e-06</v>
+        <v>4.756983507037825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>341109.7579585463</v>
+        <v>391681.8598528306</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.242135432713</v>
+        <v>170.9305148953876</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.8854767453084</v>
+        <v>233.8746714018689</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.5721961577484</v>
+        <v>211.554001008505</v>
       </c>
       <c r="AD3" t="n">
-        <v>140242.135432713</v>
+        <v>170930.5148953876</v>
       </c>
       <c r="AE3" t="n">
-        <v>191885.4767453084</v>
+        <v>233874.6714018689</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.16950594223503e-06</v>
+        <v>7.129390501491555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.939236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>173572.1961577484</v>
+        <v>211554.001008505</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.4294384744743</v>
+        <v>144.0305928738767</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.8816030432161</v>
+        <v>197.0690113512525</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.763779875637</v>
+        <v>178.2610214960393</v>
       </c>
       <c r="AD4" t="n">
-        <v>123429.4384744743</v>
+        <v>144030.5928738767</v>
       </c>
       <c r="AE4" t="n">
-        <v>168881.6030432161</v>
+        <v>197069.0113512525</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.525837473326399e-06</v>
+        <v>7.738677709218372e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>152763.779875637</v>
+        <v>178261.0214960393</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.8161299575734</v>
+        <v>144.4172843569759</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.4106913900164</v>
+        <v>197.5980996980527</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.2423727731989</v>
+        <v>178.7396143936013</v>
       </c>
       <c r="AD5" t="n">
-        <v>123816.1299575734</v>
+        <v>144417.2843569759</v>
       </c>
       <c r="AE5" t="n">
-        <v>169410.6913900163</v>
+        <v>197598.0996980527</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.525552787682384e-06</v>
+        <v>7.738190928493157e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>153242.3727731989</v>
+        <v>178739.6143936013</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.0521234483428</v>
+        <v>170.6038373153314</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.8890057317847</v>
+        <v>233.4276967248385</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.861704132181</v>
+        <v>211.1496849673173</v>
       </c>
       <c r="AD2" t="n">
-        <v>138052.1234483428</v>
+        <v>170603.8373153314</v>
       </c>
       <c r="AE2" t="n">
-        <v>188889.0057317847</v>
+        <v>233427.6967248385</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.412345146531669e-06</v>
+        <v>7.314227342642929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.75390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>170861.704132181</v>
+        <v>211149.6849673173</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0764223817455</v>
+        <v>141.8329998404551</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.3985908511739</v>
+        <v>194.0621676119643</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.3268656892913</v>
+        <v>175.5411467030962</v>
       </c>
       <c r="AD2" t="n">
-        <v>123076.4223817455</v>
+        <v>141832.9998404551</v>
       </c>
       <c r="AE2" t="n">
-        <v>168398.5908511739</v>
+        <v>194062.1676119643</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.517210600785337e-06</v>
+        <v>8.322655778803713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.021701388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>152326.8656892913</v>
+        <v>175541.1467030962</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7955321779524</v>
+        <v>136.8449232486186</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.8588468459435</v>
+        <v>187.2372611606088</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.6519674277108</v>
+        <v>169.3675997446395</v>
       </c>
       <c r="AD3" t="n">
-        <v>108795.5321779524</v>
+        <v>136844.9232486186</v>
       </c>
       <c r="AE3" t="n">
-        <v>148858.8468459435</v>
+        <v>187237.2611606088</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.665721920569613e-06</v>
+        <v>8.596277866205501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>134651.9674277108</v>
+        <v>169367.5997446395</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5106705201562</v>
+        <v>188.6519632428629</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.2495365197081</v>
+        <v>258.1219388459957</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4201070694781</v>
+        <v>233.4871432790256</v>
       </c>
       <c r="AD2" t="n">
-        <v>159510.6705201562</v>
+        <v>188651.9632428629</v>
       </c>
       <c r="AE2" t="n">
-        <v>218249.5365197081</v>
+        <v>258121.9388459957</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809165250413795e-06</v>
+        <v>6.804795733533845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.733506944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>197420.1070694781</v>
+        <v>233487.1432790256</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.1692941825112</v>
+        <v>142.2252460506463</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.8432209773392</v>
+        <v>194.5988561814291</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.0652012911299</v>
+        <v>176.0266144687386</v>
       </c>
       <c r="AD3" t="n">
-        <v>113169.2941825112</v>
+        <v>142225.2460506463</v>
       </c>
       <c r="AE3" t="n">
-        <v>154843.2209773392</v>
+        <v>194598.8561814291</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.655802941056802e-06</v>
+        <v>8.317252181704643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.689670138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>140065.2012911299</v>
+        <v>176026.6144687386</v>
       </c>
     </row>
   </sheetData>
